--- a/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -523,6 +523,21 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['1', '60', '67', '80', '87']</t>
+  </si>
+  <si>
+    <t>['14', '50']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['51']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -716,6 +731,9 @@
   </si>
   <si>
     <t>['26', '29']</t>
+  </si>
+  <si>
+    <t>['17', '90', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1429,7 @@
         <v>1.73</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1790,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT4">
         <v>0.67</v>
@@ -1981,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>0.63</v>
@@ -2363,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT7">
         <v>1.33</v>
@@ -2557,7 +2575,7 @@
         <v>2.75</v>
       </c>
       <c r="AT8">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2658,7 +2676,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2745,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1.75</v>
@@ -2849,7 +2867,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2936,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT10">
         <v>1</v>
@@ -3040,7 +3058,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3231,7 +3249,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3422,7 +3440,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3512,7 +3530,7 @@
         <v>1.25</v>
       </c>
       <c r="AT13">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3613,7 +3631,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3703,7 +3721,7 @@
         <v>1.73</v>
       </c>
       <c r="AT14">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU14">
         <v>0.91</v>
@@ -3894,7 +3912,7 @@
         <v>2.11</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4273,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.5</v>
@@ -4464,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT18">
         <v>0.63</v>
@@ -4568,7 +4586,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4655,10 +4673,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT19">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU19">
         <v>1.25</v>
@@ -4759,7 +4777,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5141,7 +5159,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5419,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5714,7 +5732,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5804,7 +5822,7 @@
         <v>1.78</v>
       </c>
       <c r="AT25">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU25">
         <v>1.24</v>
@@ -5905,7 +5923,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6096,7 +6114,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6183,10 +6201,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT27">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6287,7 +6305,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6478,7 +6496,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6568,7 +6586,7 @@
         <v>1.25</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU29">
         <v>1.88</v>
@@ -6669,7 +6687,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -7242,7 +7260,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7329,7 +7347,7 @@
         <v>1.5</v>
       </c>
       <c r="AS33">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.33</v>
@@ -7711,10 +7729,10 @@
         <v>0.67</v>
       </c>
       <c r="AS35">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT35">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -7815,7 +7833,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7902,10 +7920,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -8197,7 +8215,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8287,7 +8305,7 @@
         <v>1.25</v>
       </c>
       <c r="AT38">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU38">
         <v>1.4</v>
@@ -8388,7 +8406,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8770,7 +8788,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8857,7 +8875,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT41">
         <v>0.63</v>
@@ -8961,7 +8979,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9048,7 +9066,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT42">
         <v>0.78</v>
@@ -9152,7 +9170,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9242,7 +9260,7 @@
         <v>2.11</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU43">
         <v>1.98</v>
@@ -9343,7 +9361,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9433,7 +9451,7 @@
         <v>0.75</v>
       </c>
       <c r="AT44">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9534,7 +9552,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9621,10 +9639,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9812,10 +9830,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT46">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU46">
         <v>1.56</v>
@@ -9916,7 +9934,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10107,7 +10125,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10194,7 +10212,7 @@
         <v>0.33</v>
       </c>
       <c r="AS48">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT48">
         <v>0.44</v>
@@ -10298,7 +10316,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10871,7 +10889,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10961,7 +10979,7 @@
         <v>1.78</v>
       </c>
       <c r="AT52">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11253,7 +11271,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11635,7 +11653,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11722,7 +11740,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT56">
         <v>0.78</v>
@@ -11826,7 +11844,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11916,7 +11934,7 @@
         <v>1.22</v>
       </c>
       <c r="AT57">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU57">
         <v>1.91</v>
@@ -12104,7 +12122,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT58">
         <v>0.44</v>
@@ -12298,7 +12316,7 @@
         <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -12399,7 +12417,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12486,10 +12504,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT60">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU60">
         <v>1.31</v>
@@ -12590,7 +12608,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12781,7 +12799,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12972,7 +12990,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13059,10 +13077,10 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13163,7 +13181,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13354,7 +13372,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -14014,7 +14032,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT68">
         <v>0.78</v>
@@ -14208,7 +14226,7 @@
         <v>2.11</v>
       </c>
       <c r="AT69">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU69">
         <v>1.83</v>
@@ -14309,7 +14327,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14691,7 +14709,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14781,7 +14799,7 @@
         <v>1.14</v>
       </c>
       <c r="AT72">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -14882,7 +14900,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14969,7 +14987,7 @@
         <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT73">
         <v>1.33</v>
@@ -15163,7 +15181,7 @@
         <v>0.75</v>
       </c>
       <c r="AT74">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15264,7 +15282,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15351,7 +15369,7 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT75">
         <v>2</v>
@@ -15542,10 +15560,10 @@
         <v>3</v>
       </c>
       <c r="AS76">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT76">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -15646,7 +15664,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15733,7 +15751,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT77">
         <v>1.5</v>
@@ -15837,7 +15855,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15927,7 +15945,7 @@
         <v>1.44</v>
       </c>
       <c r="AT78">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU78">
         <v>1.75</v>
@@ -16601,7 +16619,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16983,7 +17001,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17452,10 +17470,10 @@
         <v>1.4</v>
       </c>
       <c r="AS86">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT86">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17556,7 +17574,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17646,7 +17664,7 @@
         <v>1.25</v>
       </c>
       <c r="AT87">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17747,7 +17765,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17834,10 +17852,10 @@
         <v>0.86</v>
       </c>
       <c r="AS88">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT88">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17938,7 +17956,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18129,7 +18147,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18216,7 +18234,7 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT90">
         <v>1.33</v>
@@ -18320,7 +18338,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18601,7 +18619,7 @@
         <v>2.75</v>
       </c>
       <c r="AT92">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU92">
         <v>2.34</v>
@@ -18893,7 +18911,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19084,7 +19102,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19174,7 +19192,7 @@
         <v>1.22</v>
       </c>
       <c r="AT95">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19553,7 +19571,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT97">
         <v>0.78</v>
@@ -19657,7 +19675,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20126,10 +20144,10 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT100">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU100">
         <v>1.14</v>
@@ -20230,7 +20248,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20317,10 +20335,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT101">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU101">
         <v>1.7</v>
@@ -20508,7 +20526,7 @@
         <v>1.67</v>
       </c>
       <c r="AS102">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.75</v>
@@ -20612,7 +20630,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20702,7 +20720,7 @@
         <v>1.44</v>
       </c>
       <c r="AT103">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU103">
         <v>1.58</v>
@@ -20803,7 +20821,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21185,7 +21203,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21376,7 +21394,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21466,7 +21484,7 @@
         <v>1.25</v>
       </c>
       <c r="AT107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21567,7 +21585,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21758,7 +21776,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21845,7 +21863,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT109">
         <v>0.67</v>
@@ -22331,7 +22349,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22609,7 +22627,7 @@
         <v>0.86</v>
       </c>
       <c r="AS113">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT113">
         <v>1</v>
@@ -22713,7 +22731,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22803,7 +22821,7 @@
         <v>1.25</v>
       </c>
       <c r="AT114">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.68</v>
@@ -22904,7 +22922,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -22991,7 +23009,7 @@
         <v>1.57</v>
       </c>
       <c r="AS115">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT115">
         <v>1.75</v>
@@ -23185,7 +23203,7 @@
         <v>2.75</v>
       </c>
       <c r="AT116">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU116">
         <v>2.2</v>
@@ -23564,10 +23582,10 @@
         <v>2</v>
       </c>
       <c r="AS118">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23668,7 +23686,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23758,7 +23776,7 @@
         <v>1.44</v>
       </c>
       <c r="AT119">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU119">
         <v>1.59</v>
@@ -23859,7 +23877,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23946,7 +23964,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT120">
         <v>1.5</v>
@@ -24432,7 +24450,7 @@
         <v>80</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24623,7 +24641,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24710,7 +24728,7 @@
         <v>0.75</v>
       </c>
       <c r="AS124">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT124">
         <v>0.67</v>
@@ -24814,7 +24832,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25095,7 +25113,7 @@
         <v>1.73</v>
       </c>
       <c r="AT126">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU126">
         <v>1.65</v>
@@ -25196,7 +25214,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25338,6 +25356,961 @@
       </c>
       <c r="BK127">
         <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5280805</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45121.79166666666</v>
+      </c>
+      <c r="F128">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>72</v>
+      </c>
+      <c r="H128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>169</v>
+      </c>
+      <c r="P128" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>5</v>
+      </c>
+      <c r="S128">
+        <v>9</v>
+      </c>
+      <c r="T128">
+        <v>2.5</v>
+      </c>
+      <c r="U128">
+        <v>2.1</v>
+      </c>
+      <c r="V128">
+        <v>4.33</v>
+      </c>
+      <c r="W128">
+        <v>1.43</v>
+      </c>
+      <c r="X128">
+        <v>2.63</v>
+      </c>
+      <c r="Y128">
+        <v>2.9</v>
+      </c>
+      <c r="Z128">
+        <v>1.36</v>
+      </c>
+      <c r="AA128">
+        <v>7.5</v>
+      </c>
+      <c r="AB128">
+        <v>1.06</v>
+      </c>
+      <c r="AC128">
+        <v>1.8</v>
+      </c>
+      <c r="AD128">
+        <v>3.3</v>
+      </c>
+      <c r="AE128">
+        <v>3.7</v>
+      </c>
+      <c r="AF128">
+        <v>1.06</v>
+      </c>
+      <c r="AG128">
+        <v>8.5</v>
+      </c>
+      <c r="AH128">
+        <v>1.33</v>
+      </c>
+      <c r="AI128">
+        <v>3</v>
+      </c>
+      <c r="AJ128">
+        <v>1.88</v>
+      </c>
+      <c r="AK128">
+        <v>1.85</v>
+      </c>
+      <c r="AL128">
+        <v>1.85</v>
+      </c>
+      <c r="AM128">
+        <v>1.85</v>
+      </c>
+      <c r="AN128">
+        <v>1.3</v>
+      </c>
+      <c r="AO128">
+        <v>1.3</v>
+      </c>
+      <c r="AP128">
+        <v>1.78</v>
+      </c>
+      <c r="AQ128">
+        <v>1.13</v>
+      </c>
+      <c r="AR128">
+        <v>0.9</v>
+      </c>
+      <c r="AS128">
+        <v>1</v>
+      </c>
+      <c r="AT128">
+        <v>1.09</v>
+      </c>
+      <c r="AU128">
+        <v>1.59</v>
+      </c>
+      <c r="AV128">
+        <v>1.37</v>
+      </c>
+      <c r="AW128">
+        <v>2.96</v>
+      </c>
+      <c r="AX128">
+        <v>1.9</v>
+      </c>
+      <c r="AY128">
+        <v>6.3</v>
+      </c>
+      <c r="AZ128">
+        <v>2.47</v>
+      </c>
+      <c r="BA128">
+        <v>1.45</v>
+      </c>
+      <c r="BB128">
+        <v>1.85</v>
+      </c>
+      <c r="BC128">
+        <v>2.35</v>
+      </c>
+      <c r="BD128">
+        <v>3.3</v>
+      </c>
+      <c r="BE128">
+        <v>4.7</v>
+      </c>
+      <c r="BF128">
+        <v>6</v>
+      </c>
+      <c r="BG128">
+        <v>7</v>
+      </c>
+      <c r="BH128">
+        <v>8</v>
+      </c>
+      <c r="BI128">
+        <v>9</v>
+      </c>
+      <c r="BJ128">
+        <v>14</v>
+      </c>
+      <c r="BK128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>5280808</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45121.88541666666</v>
+      </c>
+      <c r="F129">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>73</v>
+      </c>
+      <c r="H129" t="s">
+        <v>66</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>5</v>
+      </c>
+      <c r="O129" t="s">
+        <v>170</v>
+      </c>
+      <c r="P129" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q129">
+        <v>2</v>
+      </c>
+      <c r="R129">
+        <v>6</v>
+      </c>
+      <c r="S129">
+        <v>8</v>
+      </c>
+      <c r="T129">
+        <v>4</v>
+      </c>
+      <c r="U129">
+        <v>1.95</v>
+      </c>
+      <c r="V129">
+        <v>3</v>
+      </c>
+      <c r="W129">
+        <v>1.52</v>
+      </c>
+      <c r="X129">
+        <v>2.4</v>
+      </c>
+      <c r="Y129">
+        <v>3.3</v>
+      </c>
+      <c r="Z129">
+        <v>1.28</v>
+      </c>
+      <c r="AA129">
+        <v>7.75</v>
+      </c>
+      <c r="AB129">
+        <v>1.05</v>
+      </c>
+      <c r="AC129">
+        <v>3.1</v>
+      </c>
+      <c r="AD129">
+        <v>3</v>
+      </c>
+      <c r="AE129">
+        <v>2.1</v>
+      </c>
+      <c r="AF129">
+        <v>1.08</v>
+      </c>
+      <c r="AG129">
+        <v>7.85</v>
+      </c>
+      <c r="AH129">
+        <v>1.42</v>
+      </c>
+      <c r="AI129">
+        <v>2.67</v>
+      </c>
+      <c r="AJ129">
+        <v>2.26</v>
+      </c>
+      <c r="AK129">
+        <v>1.59</v>
+      </c>
+      <c r="AL129">
+        <v>2</v>
+      </c>
+      <c r="AM129">
+        <v>1.75</v>
+      </c>
+      <c r="AN129">
+        <v>1.58</v>
+      </c>
+      <c r="AO129">
+        <v>1.35</v>
+      </c>
+      <c r="AP129">
+        <v>1.3</v>
+      </c>
+      <c r="AQ129">
+        <v>1.14</v>
+      </c>
+      <c r="AR129">
+        <v>0.63</v>
+      </c>
+      <c r="AS129">
+        <v>1.38</v>
+      </c>
+      <c r="AT129">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU129">
+        <v>1.17</v>
+      </c>
+      <c r="AV129">
+        <v>1.46</v>
+      </c>
+      <c r="AW129">
+        <v>2.63</v>
+      </c>
+      <c r="AX129">
+        <v>2.27</v>
+      </c>
+      <c r="AY129">
+        <v>6.1</v>
+      </c>
+      <c r="AZ129">
+        <v>2.02</v>
+      </c>
+      <c r="BA129">
+        <v>1.36</v>
+      </c>
+      <c r="BB129">
+        <v>1.65</v>
+      </c>
+      <c r="BC129">
+        <v>2.1</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>4</v>
+      </c>
+      <c r="BF129">
+        <v>7</v>
+      </c>
+      <c r="BG129">
+        <v>2</v>
+      </c>
+      <c r="BH129">
+        <v>5</v>
+      </c>
+      <c r="BI129">
+        <v>3</v>
+      </c>
+      <c r="BJ129">
+        <v>12</v>
+      </c>
+      <c r="BK129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>5280810</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45122.75</v>
+      </c>
+      <c r="F130">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>67</v>
+      </c>
+      <c r="H130" t="s">
+        <v>65</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>171</v>
+      </c>
+      <c r="P130" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+      <c r="R130">
+        <v>8</v>
+      </c>
+      <c r="S130">
+        <v>10</v>
+      </c>
+      <c r="T130">
+        <v>4.75</v>
+      </c>
+      <c r="U130">
+        <v>2.1</v>
+      </c>
+      <c r="V130">
+        <v>2.38</v>
+      </c>
+      <c r="W130">
+        <v>1.39</v>
+      </c>
+      <c r="X130">
+        <v>2.75</v>
+      </c>
+      <c r="Y130">
+        <v>2.8</v>
+      </c>
+      <c r="Z130">
+        <v>1.38</v>
+      </c>
+      <c r="AA130">
+        <v>7.2</v>
+      </c>
+      <c r="AB130">
+        <v>1.08</v>
+      </c>
+      <c r="AC130">
+        <v>4</v>
+      </c>
+      <c r="AD130">
+        <v>3.3</v>
+      </c>
+      <c r="AE130">
+        <v>1.8</v>
+      </c>
+      <c r="AF130">
+        <v>1.05</v>
+      </c>
+      <c r="AG130">
+        <v>10.5</v>
+      </c>
+      <c r="AH130">
+        <v>1.3</v>
+      </c>
+      <c r="AI130">
+        <v>3.22</v>
+      </c>
+      <c r="AJ130">
+        <v>1.91</v>
+      </c>
+      <c r="AK130">
+        <v>1.76</v>
+      </c>
+      <c r="AL130">
+        <v>1.9</v>
+      </c>
+      <c r="AM130">
+        <v>1.86</v>
+      </c>
+      <c r="AN130">
+        <v>1.9</v>
+      </c>
+      <c r="AO130">
+        <v>1.27</v>
+      </c>
+      <c r="AP130">
+        <v>1.19</v>
+      </c>
+      <c r="AQ130">
+        <v>1.38</v>
+      </c>
+      <c r="AR130">
+        <v>1.67</v>
+      </c>
+      <c r="AS130">
+        <v>1.56</v>
+      </c>
+      <c r="AT130">
+        <v>1.43</v>
+      </c>
+      <c r="AU130">
+        <v>1.63</v>
+      </c>
+      <c r="AV130">
+        <v>1.72</v>
+      </c>
+      <c r="AW130">
+        <v>3.35</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>2</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>3</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>7</v>
+      </c>
+      <c r="BI130">
+        <v>8</v>
+      </c>
+      <c r="BJ130">
+        <v>10</v>
+      </c>
+      <c r="BK130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5280811</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45122.84375</v>
+      </c>
+      <c r="F131">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>68</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>172</v>
+      </c>
+      <c r="P131" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>9</v>
+      </c>
+      <c r="S131">
+        <v>11</v>
+      </c>
+      <c r="T131">
+        <v>3.5</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>3.25</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>2.4</v>
+      </c>
+      <c r="Y131">
+        <v>3.3</v>
+      </c>
+      <c r="Z131">
+        <v>1.3</v>
+      </c>
+      <c r="AA131">
+        <v>7.75</v>
+      </c>
+      <c r="AB131">
+        <v>1.05</v>
+      </c>
+      <c r="AC131">
+        <v>2.63</v>
+      </c>
+      <c r="AD131">
+        <v>3</v>
+      </c>
+      <c r="AE131">
+        <v>2.55</v>
+      </c>
+      <c r="AF131">
+        <v>1.07</v>
+      </c>
+      <c r="AG131">
+        <v>8.65</v>
+      </c>
+      <c r="AH131">
+        <v>1.41</v>
+      </c>
+      <c r="AI131">
+        <v>2.71</v>
+      </c>
+      <c r="AJ131">
+        <v>2.19</v>
+      </c>
+      <c r="AK131">
+        <v>1.57</v>
+      </c>
+      <c r="AL131">
+        <v>1.91</v>
+      </c>
+      <c r="AM131">
+        <v>1.85</v>
+      </c>
+      <c r="AN131">
+        <v>1.6</v>
+      </c>
+      <c r="AO131">
+        <v>1.29</v>
+      </c>
+      <c r="AP131">
+        <v>1.29</v>
+      </c>
+      <c r="AQ131">
+        <v>2.13</v>
+      </c>
+      <c r="AR131">
+        <v>1.25</v>
+      </c>
+      <c r="AS131">
+        <v>2</v>
+      </c>
+      <c r="AT131">
+        <v>1.22</v>
+      </c>
+      <c r="AU131">
+        <v>1.47</v>
+      </c>
+      <c r="AV131">
+        <v>1.51</v>
+      </c>
+      <c r="AW131">
+        <v>2.98</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>7</v>
+      </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
+      <c r="BJ131">
+        <v>12</v>
+      </c>
+      <c r="BK131">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>5280807</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45123.70833333334</v>
+      </c>
+      <c r="F132">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>70</v>
+      </c>
+      <c r="H132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>173</v>
+      </c>
+      <c r="P132" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q132">
+        <v>3</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>6</v>
+      </c>
+      <c r="T132">
+        <v>2.88</v>
+      </c>
+      <c r="U132">
+        <v>2</v>
+      </c>
+      <c r="V132">
+        <v>3.75</v>
+      </c>
+      <c r="W132">
+        <v>1.42</v>
+      </c>
+      <c r="X132">
+        <v>2.65</v>
+      </c>
+      <c r="Y132">
+        <v>2.9</v>
+      </c>
+      <c r="Z132">
+        <v>1.35</v>
+      </c>
+      <c r="AA132">
+        <v>7.7</v>
+      </c>
+      <c r="AB132">
+        <v>1.06</v>
+      </c>
+      <c r="AC132">
+        <v>2.2</v>
+      </c>
+      <c r="AD132">
+        <v>3</v>
+      </c>
+      <c r="AE132">
+        <v>3.1</v>
+      </c>
+      <c r="AF132">
+        <v>1.07</v>
+      </c>
+      <c r="AG132">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH132">
+        <v>1.35</v>
+      </c>
+      <c r="AI132">
+        <v>2.97</v>
+      </c>
+      <c r="AJ132">
+        <v>2.15</v>
+      </c>
+      <c r="AK132">
+        <v>1.62</v>
+      </c>
+      <c r="AL132">
+        <v>1.87</v>
+      </c>
+      <c r="AM132">
+        <v>1.89</v>
+      </c>
+      <c r="AN132">
+        <v>1.32</v>
+      </c>
+      <c r="AO132">
+        <v>1.3</v>
+      </c>
+      <c r="AP132">
+        <v>1.6</v>
+      </c>
+      <c r="AQ132">
+        <v>2.33</v>
+      </c>
+      <c r="AR132">
+        <v>2</v>
+      </c>
+      <c r="AS132">
+        <v>2.4</v>
+      </c>
+      <c r="AT132">
+        <v>1.78</v>
+      </c>
+      <c r="AU132">
+        <v>1.51</v>
+      </c>
+      <c r="AV132">
+        <v>1.52</v>
+      </c>
+      <c r="AW132">
+        <v>3.03</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>5</v>
+      </c>
+      <c r="BI132">
+        <v>1</v>
+      </c>
+      <c r="BJ132">
+        <v>9</v>
+      </c>
+      <c r="BK132">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['77', '84']</t>
   </si>
   <si>
     <t>['8']</t>
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK132"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2384,7 +2387,7 @@
         <v>2.4</v>
       </c>
       <c r="AT7">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2676,7 +2679,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2867,7 +2870,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3058,7 +3061,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3145,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT11">
         <v>0.78</v>
@@ -3249,7 +3252,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3440,7 +3443,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3631,7 +3634,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -4294,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="AT17">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU17">
         <v>1.33</v>
@@ -4586,7 +4589,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4777,7 +4780,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5055,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT21">
         <v>2</v>
@@ -5159,7 +5162,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5249,7 +5252,7 @@
         <v>1.22</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU22">
         <v>1.57</v>
@@ -5732,7 +5735,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5923,7 +5926,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6114,7 +6117,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6305,7 +6308,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6496,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6583,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
         <v>1.78</v>
@@ -6687,7 +6690,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6965,7 +6968,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT31">
         <v>0.44</v>
@@ -7159,7 +7162,7 @@
         <v>2.75</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>2.74</v>
@@ -7260,7 +7263,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7350,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU33">
         <v>1.53</v>
@@ -7833,7 +7836,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8111,7 +8114,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8215,7 +8218,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8406,7 +8409,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8788,7 +8791,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8979,7 +8982,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9170,7 +9173,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9361,7 +9364,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9448,7 +9451,7 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT44">
         <v>1.78</v>
@@ -9552,7 +9555,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9934,7 +9937,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10024,7 +10027,7 @@
         <v>1.44</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU47">
         <v>2.16</v>
@@ -10125,7 +10128,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10316,7 +10319,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10597,7 +10600,7 @@
         <v>1.73</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU50">
         <v>1.47</v>
@@ -10889,7 +10892,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11271,7 +11274,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11358,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT54">
         <v>1.75</v>
@@ -11653,7 +11656,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11844,7 +11847,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -12417,7 +12420,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12608,7 +12611,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12695,7 +12698,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT61">
         <v>1</v>
@@ -12799,7 +12802,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12889,7 +12892,7 @@
         <v>1.73</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU62">
         <v>1.48</v>
@@ -12990,7 +12993,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13181,7 +13184,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13372,7 +13375,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13462,7 +13465,7 @@
         <v>1.25</v>
       </c>
       <c r="AT65">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU65">
         <v>1.4</v>
@@ -14327,7 +14330,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14605,7 +14608,7 @@
         <v>0.6</v>
       </c>
       <c r="AS71">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT71">
         <v>0.44</v>
@@ -14709,7 +14712,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14900,7 +14903,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14990,7 +14993,7 @@
         <v>1.38</v>
       </c>
       <c r="AT73">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU73">
         <v>1.26</v>
@@ -15178,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT74">
         <v>1.22</v>
@@ -15282,7 +15285,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15664,7 +15667,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15754,7 +15757,7 @@
         <v>1.56</v>
       </c>
       <c r="AT77">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -15855,7 +15858,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16619,7 +16622,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -17001,7 +17004,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17574,7 +17577,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17661,7 +17664,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT87">
         <v>0.5600000000000001</v>
@@ -17765,7 +17768,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17956,7 +17959,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18043,7 +18046,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT89">
         <v>1.75</v>
@@ -18147,7 +18150,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18237,7 +18240,7 @@
         <v>1.56</v>
       </c>
       <c r="AT90">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18338,7 +18341,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18428,7 +18431,7 @@
         <v>1.44</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU91">
         <v>1.66</v>
@@ -18911,7 +18914,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19102,7 +19105,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19675,7 +19678,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -20248,7 +20251,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20630,7 +20633,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20821,7 +20824,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -20908,10 +20911,10 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT104">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU104">
         <v>1.62</v>
@@ -21102,7 +21105,7 @@
         <v>2.11</v>
       </c>
       <c r="AT105">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21203,7 +21206,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21290,7 +21293,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT106">
         <v>0.75</v>
@@ -21394,7 +21397,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21585,7 +21588,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21776,7 +21779,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22349,7 +22352,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22731,7 +22734,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22818,7 +22821,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT114">
         <v>1.22</v>
@@ -22922,7 +22925,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23391,10 +23394,10 @@
         <v>1.38</v>
       </c>
       <c r="AS117">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT117">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU117">
         <v>1.38</v>
@@ -23686,7 +23689,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23877,7 +23880,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23967,7 +23970,7 @@
         <v>1</v>
       </c>
       <c r="AT120">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU120">
         <v>1.63</v>
@@ -24450,7 +24453,7 @@
         <v>80</v>
       </c>
       <c r="P123" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24641,7 +24644,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24832,7 +24835,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25214,7 +25217,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25405,7 +25408,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25978,7 +25981,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26311,6 +26314,388 @@
       </c>
       <c r="BK132">
         <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>5280809</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45123.80208333334</v>
+      </c>
+      <c r="F133">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>174</v>
+      </c>
+      <c r="P133" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133">
+        <v>6</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>3</v>
+      </c>
+      <c r="U133">
+        <v>1.91</v>
+      </c>
+      <c r="V133">
+        <v>4</v>
+      </c>
+      <c r="W133">
+        <v>1.46</v>
+      </c>
+      <c r="X133">
+        <v>2.5</v>
+      </c>
+      <c r="Y133">
+        <v>3.1</v>
+      </c>
+      <c r="Z133">
+        <v>1.31</v>
+      </c>
+      <c r="AA133">
+        <v>8.5</v>
+      </c>
+      <c r="AB133">
+        <v>1.04</v>
+      </c>
+      <c r="AC133">
+        <v>2.2</v>
+      </c>
+      <c r="AD133">
+        <v>3</v>
+      </c>
+      <c r="AE133">
+        <v>3.1</v>
+      </c>
+      <c r="AF133">
+        <v>1.08</v>
+      </c>
+      <c r="AG133">
+        <v>8.1</v>
+      </c>
+      <c r="AH133">
+        <v>1.4</v>
+      </c>
+      <c r="AI133">
+        <v>2.74</v>
+      </c>
+      <c r="AJ133">
+        <v>2.25</v>
+      </c>
+      <c r="AK133">
+        <v>1.57</v>
+      </c>
+      <c r="AL133">
+        <v>2</v>
+      </c>
+      <c r="AM133">
+        <v>1.77</v>
+      </c>
+      <c r="AN133">
+        <v>1.25</v>
+      </c>
+      <c r="AO133">
+        <v>1.3</v>
+      </c>
+      <c r="AP133">
+        <v>1.55</v>
+      </c>
+      <c r="AQ133">
+        <v>1.25</v>
+      </c>
+      <c r="AR133">
+        <v>1.33</v>
+      </c>
+      <c r="AS133">
+        <v>1.44</v>
+      </c>
+      <c r="AT133">
+        <v>1.2</v>
+      </c>
+      <c r="AU133">
+        <v>1.6</v>
+      </c>
+      <c r="AV133">
+        <v>1.24</v>
+      </c>
+      <c r="AW133">
+        <v>2.84</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>1.88</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>7</v>
+      </c>
+      <c r="BG133">
+        <v>4</v>
+      </c>
+      <c r="BH133">
+        <v>3</v>
+      </c>
+      <c r="BI133">
+        <v>9</v>
+      </c>
+      <c r="BJ133">
+        <v>10</v>
+      </c>
+      <c r="BK133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5280806</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45123.89583333334</v>
+      </c>
+      <c r="F134">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>69</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>130</v>
+      </c>
+      <c r="P134" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>5</v>
+      </c>
+      <c r="T134">
+        <v>4.33</v>
+      </c>
+      <c r="U134">
+        <v>2.2</v>
+      </c>
+      <c r="V134">
+        <v>2.4</v>
+      </c>
+      <c r="W134">
+        <v>1.35</v>
+      </c>
+      <c r="X134">
+        <v>2.9</v>
+      </c>
+      <c r="Y134">
+        <v>2.65</v>
+      </c>
+      <c r="Z134">
+        <v>1.42</v>
+      </c>
+      <c r="AA134">
+        <v>6.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.08</v>
+      </c>
+      <c r="AC134">
+        <v>3.75</v>
+      </c>
+      <c r="AD134">
+        <v>3.3</v>
+      </c>
+      <c r="AE134">
+        <v>1.85</v>
+      </c>
+      <c r="AF134">
+        <v>1.04</v>
+      </c>
+      <c r="AG134">
+        <v>12</v>
+      </c>
+      <c r="AH134">
+        <v>1.27</v>
+      </c>
+      <c r="AI134">
+        <v>3.45</v>
+      </c>
+      <c r="AJ134">
+        <v>1.8</v>
+      </c>
+      <c r="AK134">
+        <v>1.9</v>
+      </c>
+      <c r="AL134">
+        <v>1.76</v>
+      </c>
+      <c r="AM134">
+        <v>2.01</v>
+      </c>
+      <c r="AN134">
+        <v>1.8</v>
+      </c>
+      <c r="AO134">
+        <v>1.25</v>
+      </c>
+      <c r="AP134">
+        <v>1.18</v>
+      </c>
+      <c r="AQ134">
+        <v>0.75</v>
+      </c>
+      <c r="AR134">
+        <v>1.5</v>
+      </c>
+      <c r="AS134">
+        <v>0.78</v>
+      </c>
+      <c r="AT134">
+        <v>1.44</v>
+      </c>
+      <c r="AU134">
+        <v>1.42</v>
+      </c>
+      <c r="AV134">
+        <v>1.25</v>
+      </c>
+      <c r="AW134">
+        <v>2.67</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>1.9</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>4</v>
+      </c>
+      <c r="BG134">
+        <v>2</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>4</v>
+      </c>
+      <c r="BJ134">
+        <v>10</v>
+      </c>
+      <c r="BK134">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,21 @@
     <t>['77', '84']</t>
   </si>
   <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['28', '36', '45+2', '59', '71', '90+2']</t>
+  </si>
+  <si>
+    <t>['7', '49']</t>
+  </si>
+  <si>
+    <t>['73', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '76']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -737,6 +752,9 @@
   </si>
   <si>
     <t>['17', '90', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '57']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT2">
         <v>1.22</v>
@@ -1620,10 +1638,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT3">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1814,7 +1832,7 @@
         <v>1.56</v>
       </c>
       <c r="AT4">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2005,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="AT5">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2193,10 +2211,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT6">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2575,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT8">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2679,7 +2697,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2769,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="AT9">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2870,7 +2888,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3061,7 +3079,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3148,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT11">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3252,7 +3270,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3342,7 +3360,7 @@
         <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3443,7 +3461,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3530,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT13">
         <v>1.78</v>
@@ -3634,7 +3652,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3721,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT14">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU14">
         <v>0.91</v>
@@ -3912,7 +3930,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT15">
         <v>0.5600000000000001</v>
@@ -4103,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="AS16">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU16">
         <v>2.63</v>
@@ -4488,7 +4506,7 @@
         <v>2.4</v>
       </c>
       <c r="AT18">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU18">
         <v>2.24</v>
@@ -4589,7 +4607,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4679,7 +4697,7 @@
         <v>1.56</v>
       </c>
       <c r="AT19">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU19">
         <v>1.25</v>
@@ -4780,7 +4798,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4867,10 +4885,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT20">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU20">
         <v>1.44</v>
@@ -5162,7 +5180,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT22">
         <v>1.2</v>
@@ -5634,7 +5652,7 @@
         <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5735,7 +5753,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5822,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT25">
         <v>0.5600000000000001</v>
@@ -5926,7 +5944,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6013,10 +6031,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT26">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU26">
         <v>1.6</v>
@@ -6117,7 +6135,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6308,7 +6326,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6398,7 +6416,7 @@
         <v>1.14</v>
       </c>
       <c r="AT28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6499,7 +6517,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6586,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="AS29">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
         <v>1.78</v>
@@ -6690,7 +6708,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6777,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT30">
         <v>2</v>
@@ -6971,7 +6989,7 @@
         <v>0.78</v>
       </c>
       <c r="AT31">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU31">
         <v>1.02</v>
@@ -7159,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT32">
         <v>1.44</v>
@@ -7263,7 +7281,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7544,7 +7562,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU34">
         <v>1.64</v>
@@ -7735,7 +7753,7 @@
         <v>2.4</v>
       </c>
       <c r="AT35">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU35">
         <v>1.3</v>
@@ -7836,7 +7854,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8114,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="AS37">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -8218,7 +8236,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8305,10 +8323,10 @@
         <v>0.5</v>
       </c>
       <c r="AS38">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT38">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>1.4</v>
@@ -8409,7 +8427,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8496,10 +8514,10 @@
         <v>0.33</v>
       </c>
       <c r="AS39">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU39">
         <v>1.99</v>
@@ -8687,10 +8705,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT40">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU40">
         <v>1.42</v>
@@ -8791,7 +8809,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8881,7 +8899,7 @@
         <v>1.38</v>
       </c>
       <c r="AT41">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU41">
         <v>1.04</v>
@@ -8982,7 +9000,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9072,7 +9090,7 @@
         <v>1</v>
       </c>
       <c r="AT42">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9173,7 +9191,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9260,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT43">
         <v>1.78</v>
@@ -9364,7 +9382,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9555,7 +9573,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9937,7 +9955,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10128,7 +10146,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10218,7 +10236,7 @@
         <v>2.4</v>
       </c>
       <c r="AT48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>1.3</v>
@@ -10319,7 +10337,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10597,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="AS50">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT50">
         <v>1.44</v>
@@ -10788,10 +10806,10 @@
         <v>0.33</v>
       </c>
       <c r="AS51">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT51">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU51">
         <v>1.52</v>
@@ -10892,7 +10910,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10979,10 +10997,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT52">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11170,10 +11188,10 @@
         <v>1.33</v>
       </c>
       <c r="AS53">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT53">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU53">
         <v>1.78</v>
@@ -11274,7 +11292,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11361,10 +11379,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU54">
         <v>1.68</v>
@@ -11552,7 +11570,7 @@
         <v>0.67</v>
       </c>
       <c r="AS55">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11656,7 +11674,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11746,7 +11764,7 @@
         <v>1.38</v>
       </c>
       <c r="AT56">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU56">
         <v>1.1</v>
@@ -11847,7 +11865,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11934,7 +11952,7 @@
         <v>3</v>
       </c>
       <c r="AS57">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT57">
         <v>1.43</v>
@@ -12128,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="AT58">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU58">
         <v>1.81</v>
@@ -12316,7 +12334,7 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT59">
         <v>1.22</v>
@@ -12420,7 +12438,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12611,7 +12629,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12802,7 +12820,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12889,7 +12907,7 @@
         <v>1.75</v>
       </c>
       <c r="AS62">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
         <v>1.2</v>
@@ -12993,7 +13011,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13184,7 +13202,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13375,7 +13393,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13462,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT65">
         <v>1.44</v>
@@ -13653,10 +13671,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT66">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU66">
         <v>1.93</v>
@@ -13844,10 +13862,10 @@
         <v>0.25</v>
       </c>
       <c r="AS67">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT67">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU67">
         <v>2.46</v>
@@ -14038,7 +14056,7 @@
         <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU68">
         <v>1.6</v>
@@ -14226,10 +14244,10 @@
         <v>0.83</v>
       </c>
       <c r="AS69">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT69">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU69">
         <v>1.83</v>
@@ -14330,7 +14348,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14417,10 +14435,10 @@
         <v>0.5</v>
       </c>
       <c r="AS70">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT70">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU70">
         <v>1.49</v>
@@ -14608,10 +14626,10 @@
         <v>0.6</v>
       </c>
       <c r="AS71">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT71">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU71">
         <v>1.68</v>
@@ -14712,7 +14730,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14903,7 +14921,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15285,7 +15303,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15667,7 +15685,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15858,7 +15876,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -16136,10 +16154,10 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT79">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU79">
         <v>1.43</v>
@@ -16327,10 +16345,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT80">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU80">
         <v>2.33</v>
@@ -16521,7 +16539,7 @@
         <v>1.14</v>
       </c>
       <c r="AT81">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU81">
         <v>2.02</v>
@@ -16622,7 +16640,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16709,7 +16727,7 @@
         <v>1</v>
       </c>
       <c r="AS82">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16900,7 +16918,7 @@
         <v>1.8</v>
       </c>
       <c r="AS83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -17004,7 +17022,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17091,10 +17109,10 @@
         <v>1.4</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT84">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU84">
         <v>1.59</v>
@@ -17282,10 +17300,10 @@
         <v>0.5</v>
       </c>
       <c r="AS85">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT85">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU85">
         <v>1.86</v>
@@ -17577,7 +17595,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17664,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT87">
         <v>0.5600000000000001</v>
@@ -17768,7 +17786,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17858,7 +17876,7 @@
         <v>2</v>
       </c>
       <c r="AT88">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17959,7 +17977,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18049,7 +18067,7 @@
         <v>0.78</v>
       </c>
       <c r="AT89">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU89">
         <v>1.21</v>
@@ -18150,7 +18168,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18341,7 +18359,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18619,7 +18637,7 @@
         <v>2.33</v>
       </c>
       <c r="AS92">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT92">
         <v>1.43</v>
@@ -18810,7 +18828,7 @@
         <v>2</v>
       </c>
       <c r="AS93">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT93">
         <v>2</v>
@@ -18914,7 +18932,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19001,10 +19019,10 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT94">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU94">
         <v>1.48</v>
@@ -19105,7 +19123,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19192,7 +19210,7 @@
         <v>2.17</v>
       </c>
       <c r="AS95">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT95">
         <v>1.78</v>
@@ -19386,7 +19404,7 @@
         <v>1.14</v>
       </c>
       <c r="AT96">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU96">
         <v>1.94</v>
@@ -19577,7 +19595,7 @@
         <v>2.4</v>
       </c>
       <c r="AT97">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU97">
         <v>1.34</v>
@@ -19678,7 +19696,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19765,7 +19783,7 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19956,10 +19974,10 @@
         <v>0.5</v>
       </c>
       <c r="AS99">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU99">
         <v>1.57</v>
@@ -20150,7 +20168,7 @@
         <v>1.38</v>
       </c>
       <c r="AT100">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU100">
         <v>1.14</v>
@@ -20251,7 +20269,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20532,7 +20550,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU102">
         <v>1.64</v>
@@ -20633,7 +20651,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20824,7 +20842,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -20911,7 +20929,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT104">
         <v>1.44</v>
@@ -21102,7 +21120,7 @@
         <v>1.57</v>
       </c>
       <c r="AS105">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT105">
         <v>1.2</v>
@@ -21206,7 +21224,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21296,7 +21314,7 @@
         <v>0.78</v>
       </c>
       <c r="AT106">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU106">
         <v>1.33</v>
@@ -21397,7 +21415,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21484,7 +21502,7 @@
         <v>1.33</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
         <v>1.22</v>
@@ -21588,7 +21606,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21675,7 +21693,7 @@
         <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT108">
         <v>2</v>
@@ -21779,7 +21797,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21869,7 +21887,7 @@
         <v>1</v>
       </c>
       <c r="AT109">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU109">
         <v>1.72</v>
@@ -22060,7 +22078,7 @@
         <v>1.14</v>
       </c>
       <c r="AT110">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU110">
         <v>1.86</v>
@@ -22248,10 +22266,10 @@
         <v>0.83</v>
       </c>
       <c r="AS111">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT111">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111">
         <v>1.66</v>
@@ -22352,7 +22370,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22439,10 +22457,10 @@
         <v>1</v>
       </c>
       <c r="AS112">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT112">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -22734,7 +22752,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22821,7 +22839,7 @@
         <v>1.29</v>
       </c>
       <c r="AS114">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT114">
         <v>1.22</v>
@@ -22925,7 +22943,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23015,7 +23033,7 @@
         <v>1.56</v>
       </c>
       <c r="AT115">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU115">
         <v>1.66</v>
@@ -23203,7 +23221,7 @@
         <v>0.71</v>
       </c>
       <c r="AS116">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT116">
         <v>0.5600000000000001</v>
@@ -23689,7 +23707,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23779,7 +23797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU119">
         <v>1.59</v>
@@ -23880,7 +23898,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -24158,10 +24176,10 @@
         <v>0.88</v>
       </c>
       <c r="AS121">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT121">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU121">
         <v>1.67</v>
@@ -24349,10 +24367,10 @@
         <v>0.5</v>
       </c>
       <c r="AS122">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AT122">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU122">
         <v>1.84</v>
@@ -24453,7 +24471,7 @@
         <v>80</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24644,7 +24662,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24734,7 +24752,7 @@
         <v>2.4</v>
       </c>
       <c r="AT124">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AU124">
         <v>1.37</v>
@@ -24835,7 +24853,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24922,10 +24940,10 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT125">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125">
         <v>1.44</v>
@@ -25113,7 +25131,7 @@
         <v>2.29</v>
       </c>
       <c r="AS126">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AT126">
         <v>1.78</v>
@@ -25217,7 +25235,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25304,7 +25322,7 @@
         <v>1.88</v>
       </c>
       <c r="AS127">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT127">
         <v>2</v>
@@ -25408,7 +25426,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25498,7 +25516,7 @@
         <v>1</v>
       </c>
       <c r="AT128">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU128">
         <v>1.59</v>
@@ -25981,7 +25999,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26450,7 +26468,7 @@
         <v>1.33</v>
       </c>
       <c r="AS133">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT133">
         <v>1.2</v>
@@ -26554,7 +26572,7 @@
         <v>130</v>
       </c>
       <c r="P134" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26696,6 +26714,1343 @@
       </c>
       <c r="BK134">
         <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5280815</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45128.75</v>
+      </c>
+      <c r="F135">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" t="s">
+        <v>67</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>1</v>
+      </c>
+      <c r="O135" t="s">
+        <v>175</v>
+      </c>
+      <c r="P135" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q135">
+        <v>3</v>
+      </c>
+      <c r="R135">
+        <v>3</v>
+      </c>
+      <c r="S135">
+        <v>6</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>2.1</v>
+      </c>
+      <c r="V135">
+        <v>5</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>2.81</v>
+      </c>
+      <c r="Y135">
+        <v>2.9</v>
+      </c>
+      <c r="Z135">
+        <v>1.38</v>
+      </c>
+      <c r="AA135">
+        <v>7.4</v>
+      </c>
+      <c r="AB135">
+        <v>1.07</v>
+      </c>
+      <c r="AC135">
+        <v>1.63</v>
+      </c>
+      <c r="AD135">
+        <v>3.3</v>
+      </c>
+      <c r="AE135">
+        <v>4.8</v>
+      </c>
+      <c r="AF135">
+        <v>1.02</v>
+      </c>
+      <c r="AG135">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH135">
+        <v>1.29</v>
+      </c>
+      <c r="AI135">
+        <v>3.18</v>
+      </c>
+      <c r="AJ135">
+        <v>1.87</v>
+      </c>
+      <c r="AK135">
+        <v>1.73</v>
+      </c>
+      <c r="AL135">
+        <v>1.86</v>
+      </c>
+      <c r="AM135">
+        <v>1.8</v>
+      </c>
+      <c r="AN135">
+        <v>1.16</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>2.08</v>
+      </c>
+      <c r="AQ135">
+        <v>1.78</v>
+      </c>
+      <c r="AR135">
+        <v>0.78</v>
+      </c>
+      <c r="AS135">
+        <v>1.9</v>
+      </c>
+      <c r="AT135">
+        <v>0.7</v>
+      </c>
+      <c r="AU135">
+        <v>1.51</v>
+      </c>
+      <c r="AV135">
+        <v>1.39</v>
+      </c>
+      <c r="AW135">
+        <v>2.9</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>1.88</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>9</v>
+      </c>
+      <c r="BK135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5280812</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45128.84375</v>
+      </c>
+      <c r="F136">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>66</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>80</v>
+      </c>
+      <c r="P136" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>7</v>
+      </c>
+      <c r="S136">
+        <v>12</v>
+      </c>
+      <c r="T136">
+        <v>2.63</v>
+      </c>
+      <c r="U136">
+        <v>2.1</v>
+      </c>
+      <c r="V136">
+        <v>4</v>
+      </c>
+      <c r="W136">
+        <v>1.43</v>
+      </c>
+      <c r="X136">
+        <v>2.7</v>
+      </c>
+      <c r="Y136">
+        <v>2.77</v>
+      </c>
+      <c r="Z136">
+        <v>1.41</v>
+      </c>
+      <c r="AA136">
+        <v>6.9</v>
+      </c>
+      <c r="AB136">
+        <v>1.08</v>
+      </c>
+      <c r="AC136">
+        <v>2</v>
+      </c>
+      <c r="AD136">
+        <v>3.25</v>
+      </c>
+      <c r="AE136">
+        <v>3.1</v>
+      </c>
+      <c r="AF136">
+        <v>1.03</v>
+      </c>
+      <c r="AG136">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH136">
+        <v>1.26</v>
+      </c>
+      <c r="AI136">
+        <v>3.34</v>
+      </c>
+      <c r="AJ136">
+        <v>1.87</v>
+      </c>
+      <c r="AK136">
+        <v>1.83</v>
+      </c>
+      <c r="AL136">
+        <v>1.68</v>
+      </c>
+      <c r="AM136">
+        <v>2.01</v>
+      </c>
+      <c r="AN136">
+        <v>1.28</v>
+      </c>
+      <c r="AO136">
+        <v>1.32</v>
+      </c>
+      <c r="AP136">
+        <v>1.66</v>
+      </c>
+      <c r="AQ136">
+        <v>1.22</v>
+      </c>
+      <c r="AR136">
+        <v>1.09</v>
+      </c>
+      <c r="AS136">
+        <v>1.2</v>
+      </c>
+      <c r="AT136">
+        <v>1.08</v>
+      </c>
+      <c r="AU136">
+        <v>1.81</v>
+      </c>
+      <c r="AV136">
+        <v>1.44</v>
+      </c>
+      <c r="AW136">
+        <v>3.25</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>1.7</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>6</v>
+      </c>
+      <c r="BG136">
+        <v>8</v>
+      </c>
+      <c r="BH136">
+        <v>4</v>
+      </c>
+      <c r="BI136">
+        <v>6</v>
+      </c>
+      <c r="BJ136">
+        <v>10</v>
+      </c>
+      <c r="BK136">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5280814</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45129.70833333334</v>
+      </c>
+      <c r="F137">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>78</v>
+      </c>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>6</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>7</v>
+      </c>
+      <c r="O137" t="s">
+        <v>176</v>
+      </c>
+      <c r="P137" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q137">
+        <v>7</v>
+      </c>
+      <c r="R137">
+        <v>4</v>
+      </c>
+      <c r="S137">
+        <v>11</v>
+      </c>
+      <c r="T137">
+        <v>2.05</v>
+      </c>
+      <c r="U137">
+        <v>2.1</v>
+      </c>
+      <c r="V137">
+        <v>6.5</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>2.75</v>
+      </c>
+      <c r="Y137">
+        <v>2.8</v>
+      </c>
+      <c r="Z137">
+        <v>1.38</v>
+      </c>
+      <c r="AA137">
+        <v>6.5</v>
+      </c>
+      <c r="AB137">
+        <v>1.08</v>
+      </c>
+      <c r="AC137">
+        <v>1.45</v>
+      </c>
+      <c r="AD137">
+        <v>3.75</v>
+      </c>
+      <c r="AE137">
+        <v>6.1</v>
+      </c>
+      <c r="AF137">
+        <v>1.05</v>
+      </c>
+      <c r="AG137">
+        <v>10.25</v>
+      </c>
+      <c r="AH137">
+        <v>1.3</v>
+      </c>
+      <c r="AI137">
+        <v>3.23</v>
+      </c>
+      <c r="AJ137">
+        <v>1.96</v>
+      </c>
+      <c r="AK137">
+        <v>1.8</v>
+      </c>
+      <c r="AL137">
+        <v>2</v>
+      </c>
+      <c r="AM137">
+        <v>1.75</v>
+      </c>
+      <c r="AN137">
+        <v>1.09</v>
+      </c>
+      <c r="AO137">
+        <v>1.26</v>
+      </c>
+      <c r="AP137">
+        <v>2.33</v>
+      </c>
+      <c r="AQ137">
+        <v>2.11</v>
+      </c>
+      <c r="AR137">
+        <v>0.67</v>
+      </c>
+      <c r="AS137">
+        <v>2.2</v>
+      </c>
+      <c r="AT137">
+        <v>0.6</v>
+      </c>
+      <c r="AU137">
+        <v>1.78</v>
+      </c>
+      <c r="AV137">
+        <v>1.37</v>
+      </c>
+      <c r="AW137">
+        <v>3.15</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>13</v>
+      </c>
+      <c r="BG137">
+        <v>5</v>
+      </c>
+      <c r="BH137">
+        <v>12</v>
+      </c>
+      <c r="BI137">
+        <v>4</v>
+      </c>
+      <c r="BJ137">
+        <v>25</v>
+      </c>
+      <c r="BK137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5280816</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45129.80208333334</v>
+      </c>
+      <c r="F138">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>177</v>
+      </c>
+      <c r="P138" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q138">
+        <v>2</v>
+      </c>
+      <c r="R138">
+        <v>9</v>
+      </c>
+      <c r="S138">
+        <v>11</v>
+      </c>
+      <c r="T138">
+        <v>2.2</v>
+      </c>
+      <c r="U138">
+        <v>2.1</v>
+      </c>
+      <c r="V138">
+        <v>5.5</v>
+      </c>
+      <c r="W138">
+        <v>1.42</v>
+      </c>
+      <c r="X138">
+        <v>2.65</v>
+      </c>
+      <c r="Y138">
+        <v>3</v>
+      </c>
+      <c r="Z138">
+        <v>1.36</v>
+      </c>
+      <c r="AA138">
+        <v>7</v>
+      </c>
+      <c r="AB138">
+        <v>1.06</v>
+      </c>
+      <c r="AC138">
+        <v>1.63</v>
+      </c>
+      <c r="AD138">
+        <v>3.5</v>
+      </c>
+      <c r="AE138">
+        <v>4.55</v>
+      </c>
+      <c r="AF138">
+        <v>1.03</v>
+      </c>
+      <c r="AG138">
+        <v>9.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.34</v>
+      </c>
+      <c r="AI138">
+        <v>2.98</v>
+      </c>
+      <c r="AJ138">
+        <v>2.01</v>
+      </c>
+      <c r="AK138">
+        <v>1.75</v>
+      </c>
+      <c r="AL138">
+        <v>2.05</v>
+      </c>
+      <c r="AM138">
+        <v>1.7</v>
+      </c>
+      <c r="AN138">
+        <v>1.14</v>
+      </c>
+      <c r="AO138">
+        <v>1.25</v>
+      </c>
+      <c r="AP138">
+        <v>2.15</v>
+      </c>
+      <c r="AQ138">
+        <v>1.25</v>
+      </c>
+      <c r="AR138">
+        <v>0.44</v>
+      </c>
+      <c r="AS138">
+        <v>1.44</v>
+      </c>
+      <c r="AT138">
+        <v>0.4</v>
+      </c>
+      <c r="AU138">
+        <v>1.64</v>
+      </c>
+      <c r="AV138">
+        <v>1.24</v>
+      </c>
+      <c r="AW138">
+        <v>2.88</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>2</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>5</v>
+      </c>
+      <c r="BG138">
+        <v>5</v>
+      </c>
+      <c r="BH138">
+        <v>2</v>
+      </c>
+      <c r="BI138">
+        <v>6</v>
+      </c>
+      <c r="BJ138">
+        <v>7</v>
+      </c>
+      <c r="BK138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5280818</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45129.89583333334</v>
+      </c>
+      <c r="F139">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>178</v>
+      </c>
+      <c r="P139" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>7</v>
+      </c>
+      <c r="T139">
+        <v>2.3</v>
+      </c>
+      <c r="U139">
+        <v>2.1</v>
+      </c>
+      <c r="V139">
+        <v>5</v>
+      </c>
+      <c r="W139">
+        <v>1.4</v>
+      </c>
+      <c r="X139">
+        <v>2.7</v>
+      </c>
+      <c r="Y139">
+        <v>2.85</v>
+      </c>
+      <c r="Z139">
+        <v>1.38</v>
+      </c>
+      <c r="AA139">
+        <v>6.5</v>
+      </c>
+      <c r="AB139">
+        <v>1.08</v>
+      </c>
+      <c r="AC139">
+        <v>1.75</v>
+      </c>
+      <c r="AD139">
+        <v>3.64</v>
+      </c>
+      <c r="AE139">
+        <v>4.52</v>
+      </c>
+      <c r="AF139">
+        <v>1.05</v>
+      </c>
+      <c r="AG139">
+        <v>10.75</v>
+      </c>
+      <c r="AH139">
+        <v>1.3</v>
+      </c>
+      <c r="AI139">
+        <v>3.2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.99</v>
+      </c>
+      <c r="AK139">
+        <v>1.81</v>
+      </c>
+      <c r="AL139">
+        <v>1.9</v>
+      </c>
+      <c r="AM139">
+        <v>1.8</v>
+      </c>
+      <c r="AN139">
+        <v>1.17</v>
+      </c>
+      <c r="AO139">
+        <v>1.26</v>
+      </c>
+      <c r="AP139">
+        <v>2.05</v>
+      </c>
+      <c r="AQ139">
+        <v>2.75</v>
+      </c>
+      <c r="AR139">
+        <v>0.63</v>
+      </c>
+      <c r="AS139">
+        <v>2.78</v>
+      </c>
+      <c r="AT139">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU139">
+        <v>2.16</v>
+      </c>
+      <c r="AV139">
+        <v>1.47</v>
+      </c>
+      <c r="AW139">
+        <v>3.63</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>7</v>
+      </c>
+      <c r="BH139">
+        <v>4</v>
+      </c>
+      <c r="BI139">
+        <v>4</v>
+      </c>
+      <c r="BJ139">
+        <v>10</v>
+      </c>
+      <c r="BK139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5280817</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45130.75</v>
+      </c>
+      <c r="F140">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>4</v>
+      </c>
+      <c r="O140" t="s">
+        <v>179</v>
+      </c>
+      <c r="P140" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q140">
+        <v>4</v>
+      </c>
+      <c r="R140">
+        <v>6</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>3</v>
+      </c>
+      <c r="U140">
+        <v>1.95</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.48</v>
+      </c>
+      <c r="X140">
+        <v>2.5</v>
+      </c>
+      <c r="Y140">
+        <v>3.14</v>
+      </c>
+      <c r="Z140">
+        <v>1.33</v>
+      </c>
+      <c r="AA140">
+        <v>8.5</v>
+      </c>
+      <c r="AB140">
+        <v>1.05</v>
+      </c>
+      <c r="AC140">
+        <v>2.15</v>
+      </c>
+      <c r="AD140">
+        <v>3</v>
+      </c>
+      <c r="AE140">
+        <v>3.1</v>
+      </c>
+      <c r="AF140">
+        <v>1.05</v>
+      </c>
+      <c r="AG140">
+        <v>9.15</v>
+      </c>
+      <c r="AH140">
+        <v>1.34</v>
+      </c>
+      <c r="AI140">
+        <v>2.98</v>
+      </c>
+      <c r="AJ140">
+        <v>2.15</v>
+      </c>
+      <c r="AK140">
+        <v>1.57</v>
+      </c>
+      <c r="AL140">
+        <v>1.82</v>
+      </c>
+      <c r="AM140">
+        <v>1.88</v>
+      </c>
+      <c r="AN140">
+        <v>1.32</v>
+      </c>
+      <c r="AO140">
+        <v>1.32</v>
+      </c>
+      <c r="AP140">
+        <v>1.58</v>
+      </c>
+      <c r="AQ140">
+        <v>1.73</v>
+      </c>
+      <c r="AR140">
+        <v>1.75</v>
+      </c>
+      <c r="AS140">
+        <v>1.67</v>
+      </c>
+      <c r="AT140">
+        <v>1.67</v>
+      </c>
+      <c r="AU140">
+        <v>1.63</v>
+      </c>
+      <c r="AV140">
+        <v>1.37</v>
+      </c>
+      <c r="AW140">
+        <v>3</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>1.9</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>3</v>
+      </c>
+      <c r="BG140">
+        <v>3</v>
+      </c>
+      <c r="BH140">
+        <v>5</v>
+      </c>
+      <c r="BI140">
+        <v>2</v>
+      </c>
+      <c r="BJ140">
+        <v>8</v>
+      </c>
+      <c r="BK140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5280813</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45130.85416666666</v>
+      </c>
+      <c r="F141">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>121</v>
+      </c>
+      <c r="P141" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q141">
+        <v>9</v>
+      </c>
+      <c r="R141">
+        <v>2</v>
+      </c>
+      <c r="S141">
+        <v>11</v>
+      </c>
+      <c r="T141">
+        <v>2.4</v>
+      </c>
+      <c r="U141">
+        <v>2.05</v>
+      </c>
+      <c r="V141">
+        <v>5</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>1.79</v>
+      </c>
+      <c r="AD141">
+        <v>3.15</v>
+      </c>
+      <c r="AE141">
+        <v>3.65</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>2.09</v>
+      </c>
+      <c r="AK141">
+        <v>1.74</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>1.44</v>
+      </c>
+      <c r="AR141">
+        <v>0.75</v>
+      </c>
+      <c r="AS141">
+        <v>1.6</v>
+      </c>
+      <c r="AT141">
+        <v>0.67</v>
+      </c>
+      <c r="AU141">
+        <v>1.62</v>
+      </c>
+      <c r="AV141">
+        <v>1.22</v>
+      </c>
+      <c r="AW141">
+        <v>2.84</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>7</v>
+      </c>
+      <c r="BG141">
+        <v>5</v>
+      </c>
+      <c r="BH141">
+        <v>9</v>
+      </c>
+      <c r="BI141">
+        <v>12</v>
+      </c>
+      <c r="BJ141">
+        <v>16</v>
+      </c>
+      <c r="BK141">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Venezuela Primera División_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,12 @@
     <t>['20', '76']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['64', '89']</t>
+  </si>
+  <si>
     <t>['8']</t>
   </si>
   <si>
@@ -730,9 +736,6 @@
     <t>['45+3', '85']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
     <t>['19', '62', '70']</t>
   </si>
   <si>
@@ -755,6 +758,21 @@
   </si>
   <si>
     <t>['43', '57']</t>
+  </si>
+  <si>
+    <t>['69', '90+1']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['15', '45+3', '87']</t>
+  </si>
+  <si>
+    <t>['44']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1468,7 @@
         <v>1.67</v>
       </c>
       <c r="AT2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1829,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT4">
         <v>0.6</v>
@@ -2211,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT6">
         <v>0.4</v>
@@ -2405,7 +2423,7 @@
         <v>2.4</v>
       </c>
       <c r="AT7">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2697,7 +2715,7 @@
         <v>86</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>6</v>
@@ -2784,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT9">
         <v>1.67</v>
@@ -2888,7 +2906,7 @@
         <v>87</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2975,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT10">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3079,7 +3097,7 @@
         <v>80</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>15</v>
@@ -3270,7 +3288,7 @@
         <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>-1</v>
@@ -3357,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
         <v>0.6</v>
@@ -3461,7 +3479,7 @@
         <v>89</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>8</v>
@@ -3551,7 +3569,7 @@
         <v>1.44</v>
       </c>
       <c r="AT13">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3652,7 +3670,7 @@
         <v>90</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>5</v>
@@ -3933,7 +3951,7 @@
         <v>2.2</v>
       </c>
       <c r="AT15">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4607,7 +4625,7 @@
         <v>95</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4694,7 +4712,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT19">
         <v>1.08</v>
@@ -4798,7 +4816,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5076,10 +5094,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT21">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5180,7 +5198,7 @@
         <v>97</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5270,7 +5288,7 @@
         <v>1.2</v>
       </c>
       <c r="AT22">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.57</v>
@@ -5458,10 +5476,10 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU23">
         <v>1.63</v>
@@ -5649,7 +5667,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT24">
         <v>0.7</v>
@@ -5753,7 +5771,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5840,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT25">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU25">
         <v>1.24</v>
@@ -5944,7 +5962,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2</v>
@@ -6135,7 +6153,7 @@
         <v>80</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6222,10 +6240,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU27">
         <v>1.41</v>
@@ -6326,7 +6344,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>8</v>
@@ -6413,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT28">
         <v>0.6</v>
@@ -6517,7 +6535,7 @@
         <v>80</v>
       </c>
       <c r="P29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>7</v>
@@ -6607,7 +6625,7 @@
         <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU29">
         <v>1.88</v>
@@ -6708,7 +6726,7 @@
         <v>89</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6798,7 +6816,7 @@
         <v>1.67</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU30">
         <v>1.52</v>
@@ -6986,7 +7004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS31">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT31">
         <v>0.4</v>
@@ -7281,7 +7299,7 @@
         <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>12</v>
@@ -7371,7 +7389,7 @@
         <v>2</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU33">
         <v>1.53</v>
@@ -7559,7 +7577,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT34">
         <v>0.67</v>
@@ -7854,7 +7872,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7941,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="AS36">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT36">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU36">
         <v>1.49</v>
@@ -8135,7 +8153,7 @@
         <v>1.6</v>
       </c>
       <c r="AT37">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU37">
         <v>1.5</v>
@@ -8236,7 +8254,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8427,7 +8445,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8705,7 +8723,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT40">
         <v>1.67</v>
@@ -8809,7 +8827,7 @@
         <v>80</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -8896,7 +8914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT41">
         <v>0.5600000000000001</v>
@@ -9000,7 +9018,7 @@
         <v>111</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9087,7 +9105,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT42">
         <v>0.7</v>
@@ -9191,7 +9209,7 @@
         <v>80</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -9281,7 +9299,7 @@
         <v>2.2</v>
       </c>
       <c r="AT43">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU43">
         <v>1.98</v>
@@ -9382,7 +9400,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9469,10 +9487,10 @@
         <v>3</v>
       </c>
       <c r="AS44">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT44">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU44">
         <v>1.3</v>
@@ -9573,7 +9591,7 @@
         <v>112</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -9660,10 +9678,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT45">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>1.86</v>
@@ -9854,7 +9872,7 @@
         <v>2</v>
       </c>
       <c r="AT46">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU46">
         <v>1.56</v>
@@ -9955,7 +9973,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10042,10 +10060,10 @@
         <v>2</v>
       </c>
       <c r="AS47">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT47">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU47">
         <v>2.16</v>
@@ -10146,7 +10164,7 @@
         <v>83</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10337,7 +10355,7 @@
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2</v>
@@ -10424,10 +10442,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT49">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU49">
         <v>2.07</v>
@@ -10910,7 +10928,7 @@
         <v>117</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10997,7 +11015,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT52">
         <v>1.08</v>
@@ -11292,7 +11310,7 @@
         <v>80</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11573,7 +11591,7 @@
         <v>2.78</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU55">
         <v>2.34</v>
@@ -11674,7 +11692,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>10</v>
@@ -11761,7 +11779,7 @@
         <v>1.33</v>
       </c>
       <c r="AS56">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT56">
         <v>0.7</v>
@@ -11865,7 +11883,7 @@
         <v>121</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11955,7 +11973,7 @@
         <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU57">
         <v>1.91</v>
@@ -12143,7 +12161,7 @@
         <v>0.5</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT58">
         <v>0.4</v>
@@ -12334,10 +12352,10 @@
         <v>1.33</v>
       </c>
       <c r="AS59">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT59">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU59">
         <v>1.46</v>
@@ -12438,7 +12456,7 @@
         <v>124</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12528,7 +12546,7 @@
         <v>2.4</v>
       </c>
       <c r="AT60">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU60">
         <v>1.31</v>
@@ -12629,7 +12647,7 @@
         <v>80</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>1</v>
@@ -12716,10 +12734,10 @@
         <v>0.5</v>
       </c>
       <c r="AS61">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU61">
         <v>1.24</v>
@@ -12820,7 +12838,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3</v>
@@ -12910,7 +12928,7 @@
         <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>1.48</v>
@@ -13011,7 +13029,7 @@
         <v>126</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2</v>
@@ -13098,10 +13116,10 @@
         <v>3</v>
       </c>
       <c r="AS63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU63">
         <v>1.52</v>
@@ -13202,7 +13220,7 @@
         <v>127</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>2</v>
@@ -13289,10 +13307,10 @@
         <v>1</v>
       </c>
       <c r="AS64">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU64">
         <v>1.95</v>
@@ -13393,7 +13411,7 @@
         <v>80</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -14348,7 +14366,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -14730,7 +14748,7 @@
         <v>121</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q72">
         <v>8</v>
@@ -14817,10 +14835,10 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT72">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU72">
         <v>1.84</v>
@@ -14921,7 +14939,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15008,10 +15026,10 @@
         <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT73">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU73">
         <v>1.26</v>
@@ -15199,10 +15217,10 @@
         <v>1</v>
       </c>
       <c r="AS74">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT74">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU74">
         <v>1.2</v>
@@ -15303,7 +15321,7 @@
         <v>80</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>6</v>
@@ -15390,10 +15408,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT75">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU75">
         <v>1.79</v>
@@ -15584,7 +15602,7 @@
         <v>2.4</v>
       </c>
       <c r="AT76">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -15685,7 +15703,7 @@
         <v>134</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15772,7 +15790,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT77">
         <v>1.44</v>
@@ -15876,7 +15894,7 @@
         <v>135</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q78">
         <v>2</v>
@@ -15963,10 +15981,10 @@
         <v>2.6</v>
       </c>
       <c r="AS78">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT78">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU78">
         <v>1.75</v>
@@ -16154,7 +16172,7 @@
         <v>0.6</v>
       </c>
       <c r="AS79">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT79">
         <v>0.6</v>
@@ -16536,7 +16554,7 @@
         <v>0.2</v>
       </c>
       <c r="AS81">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT81">
         <v>0.67</v>
@@ -16640,7 +16658,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -16730,7 +16748,7 @@
         <v>2.2</v>
       </c>
       <c r="AT82">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU82">
         <v>1.85</v>
@@ -16921,7 +16939,7 @@
         <v>1.44</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU83">
         <v>1.5</v>
@@ -17022,7 +17040,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -17491,10 +17509,10 @@
         <v>1.4</v>
       </c>
       <c r="AS86">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT86">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU86">
         <v>1.26</v>
@@ -17595,7 +17613,7 @@
         <v>141</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>5</v>
@@ -17685,7 +17703,7 @@
         <v>1.6</v>
       </c>
       <c r="AT87">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU87">
         <v>1.69</v>
@@ -17786,7 +17804,7 @@
         <v>142</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17977,7 +17995,7 @@
         <v>80</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>9</v>
@@ -18064,7 +18082,7 @@
         <v>1.4</v>
       </c>
       <c r="AS89">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT89">
         <v>1.67</v>
@@ -18168,7 +18186,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18255,10 +18273,10 @@
         <v>1.33</v>
       </c>
       <c r="AS90">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT90">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU90">
         <v>1.65</v>
@@ -18359,7 +18377,7 @@
         <v>80</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18446,7 +18464,7 @@
         <v>0.6</v>
       </c>
       <c r="AS91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT91">
         <v>1.44</v>
@@ -18640,7 +18658,7 @@
         <v>2.78</v>
       </c>
       <c r="AT92">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU92">
         <v>2.34</v>
@@ -18831,7 +18849,7 @@
         <v>2.2</v>
       </c>
       <c r="AT93">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU93">
         <v>2.01</v>
@@ -18932,7 +18950,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>9</v>
@@ -19019,7 +19037,7 @@
         <v>0.33</v>
       </c>
       <c r="AS94">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT94">
         <v>0.67</v>
@@ -19123,7 +19141,7 @@
         <v>108</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19213,7 +19231,7 @@
         <v>1.2</v>
       </c>
       <c r="AT95">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU95">
         <v>1.76</v>
@@ -19401,7 +19419,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT96">
         <v>0.5600000000000001</v>
@@ -19696,7 +19714,7 @@
         <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>6</v>
@@ -19786,7 +19804,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU98">
         <v>1.65</v>
@@ -20165,7 +20183,7 @@
         <v>0.75</v>
       </c>
       <c r="AS100">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT100">
         <v>1.08</v>
@@ -20269,7 +20287,7 @@
         <v>151</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -20356,10 +20374,10 @@
         <v>0.83</v>
       </c>
       <c r="AS101">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT101">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU101">
         <v>1.7</v>
@@ -20651,7 +20669,7 @@
         <v>80</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>7</v>
@@ -20738,10 +20756,10 @@
         <v>1.75</v>
       </c>
       <c r="AS103">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT103">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU103">
         <v>1.58</v>
@@ -20842,7 +20860,7 @@
         <v>80</v>
       </c>
       <c r="P104" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q104">
         <v>9</v>
@@ -21123,7 +21141,7 @@
         <v>2.2</v>
       </c>
       <c r="AT105">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU105">
         <v>1.83</v>
@@ -21224,7 +21242,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21311,7 +21329,7 @@
         <v>0.71</v>
       </c>
       <c r="AS106">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT106">
         <v>0.67</v>
@@ -21415,7 +21433,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21505,7 +21523,7 @@
         <v>1.44</v>
       </c>
       <c r="AT107">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU107">
         <v>1.66</v>
@@ -21606,7 +21624,7 @@
         <v>80</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>1</v>
@@ -21693,10 +21711,10 @@
         <v>1.71</v>
       </c>
       <c r="AS108">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT108">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU108">
         <v>1.48</v>
@@ -21797,7 +21815,7 @@
         <v>155</v>
       </c>
       <c r="P109" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21884,7 +21902,7 @@
         <v>0.43</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT109">
         <v>0.6</v>
@@ -22075,7 +22093,7 @@
         <v>0.43</v>
       </c>
       <c r="AS110">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
         <v>0.4</v>
@@ -22370,7 +22388,7 @@
         <v>157</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22651,7 +22669,7 @@
         <v>2.4</v>
       </c>
       <c r="AT113">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU113">
         <v>1.4</v>
@@ -22752,7 +22770,7 @@
         <v>121</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22842,7 +22860,7 @@
         <v>1.6</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.68</v>
@@ -22943,7 +22961,7 @@
         <v>80</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>3</v>
@@ -23030,7 +23048,7 @@
         <v>1.57</v>
       </c>
       <c r="AS115">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT115">
         <v>1.67</v>
@@ -23224,7 +23242,7 @@
         <v>2.78</v>
       </c>
       <c r="AT116">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU116">
         <v>2.2</v>
@@ -23412,10 +23430,10 @@
         <v>1.38</v>
       </c>
       <c r="AS117">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT117">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU117">
         <v>1.38</v>
@@ -23606,7 +23624,7 @@
         <v>2</v>
       </c>
       <c r="AT118">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU118">
         <v>1.51</v>
@@ -23707,7 +23725,7 @@
         <v>162</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -23794,7 +23812,7 @@
         <v>0.67</v>
       </c>
       <c r="AS119">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT119">
         <v>1.08</v>
@@ -23898,7 +23916,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -23985,7 +24003,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT120">
         <v>1.44</v>
@@ -24471,7 +24489,7 @@
         <v>80</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24558,10 +24576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS123">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT123">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU123">
         <v>1.75</v>
@@ -24662,7 +24680,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24853,7 +24871,7 @@
         <v>166</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24940,7 +24958,7 @@
         <v>0.71</v>
       </c>
       <c r="AS125">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT125">
         <v>0.5600000000000001</v>
@@ -25134,7 +25152,7 @@
         <v>1.67</v>
       </c>
       <c r="AT126">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU126">
         <v>1.65</v>
@@ -25235,7 +25253,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>3</v>
@@ -25325,7 +25343,7 @@
         <v>1.2</v>
       </c>
       <c r="AT127">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU127">
         <v>1.86</v>
@@ -25426,7 +25444,7 @@
         <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25513,7 +25531,7 @@
         <v>0.9</v>
       </c>
       <c r="AS128">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT128">
         <v>1.08</v>
@@ -25704,10 +25722,10 @@
         <v>0.63</v>
       </c>
       <c r="AS129">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT129">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU129">
         <v>1.17</v>
@@ -25895,10 +25913,10 @@
         <v>1.67</v>
       </c>
       <c r="AS130">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT130">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU130">
         <v>1.63</v>
@@ -25999,7 +26017,7 @@
         <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26089,7 +26107,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>1.47</v>
@@ -26280,7 +26298,7 @@
         <v>2.4</v>
       </c>
       <c r="AT132">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU132">
         <v>1.51</v>
@@ -26471,7 +26489,7 @@
         <v>1.6</v>
       </c>
       <c r="AT133">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU133">
         <v>1.6</v>
@@ -26572,7 +26590,7 @@
         <v>130</v>
       </c>
       <c r="P134" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26659,7 +26677,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT134">
         <v>1.44</v>
@@ -26850,7 +26868,7 @@
         <v>0.78</v>
       </c>
       <c r="AS135">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="AT135">
         <v>0.7</v>
@@ -27718,7 +27736,7 @@
         <v>179</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q140">
         <v>4</v>
@@ -28051,6 +28069,1343 @@
       </c>
       <c r="BK141">
         <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5280820</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45134.75</v>
+      </c>
+      <c r="F142">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>67</v>
+      </c>
+      <c r="H142" t="s">
+        <v>68</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>180</v>
+      </c>
+      <c r="P142" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q142">
+        <v>9</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>12</v>
+      </c>
+      <c r="T142">
+        <v>3.4</v>
+      </c>
+      <c r="U142">
+        <v>2.05</v>
+      </c>
+      <c r="V142">
+        <v>3.1</v>
+      </c>
+      <c r="W142">
+        <v>1.51</v>
+      </c>
+      <c r="X142">
+        <v>2.45</v>
+      </c>
+      <c r="Y142">
+        <v>3.26</v>
+      </c>
+      <c r="Z142">
+        <v>1.31</v>
+      </c>
+      <c r="AA142">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AB142">
+        <v>1.05</v>
+      </c>
+      <c r="AC142">
+        <v>3.09</v>
+      </c>
+      <c r="AD142">
+        <v>2.98</v>
+      </c>
+      <c r="AE142">
+        <v>2.39</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>6.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.38</v>
+      </c>
+      <c r="AI142">
+        <v>2.71</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>1.75</v>
+      </c>
+      <c r="AL142">
+        <v>1.88</v>
+      </c>
+      <c r="AM142">
+        <v>1.88</v>
+      </c>
+      <c r="AN142">
+        <v>1.55</v>
+      </c>
+      <c r="AO142">
+        <v>1.35</v>
+      </c>
+      <c r="AP142">
+        <v>1.32</v>
+      </c>
+      <c r="AQ142">
+        <v>1.56</v>
+      </c>
+      <c r="AR142">
+        <v>1</v>
+      </c>
+      <c r="AS142">
+        <v>1.4</v>
+      </c>
+      <c r="AT142">
+        <v>1.2</v>
+      </c>
+      <c r="AU142">
+        <v>1.56</v>
+      </c>
+      <c r="AV142">
+        <v>1.28</v>
+      </c>
+      <c r="AW142">
+        <v>2.84</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>1.8</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>3</v>
+      </c>
+      <c r="BG142">
+        <v>4</v>
+      </c>
+      <c r="BH142">
+        <v>1</v>
+      </c>
+      <c r="BI142">
+        <v>3</v>
+      </c>
+      <c r="BJ142">
+        <v>4</v>
+      </c>
+      <c r="BK142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5280821</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45135.70833333334</v>
+      </c>
+      <c r="F143">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>74</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>80</v>
+      </c>
+      <c r="P143" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q143">
+        <v>5</v>
+      </c>
+      <c r="R143">
+        <v>4</v>
+      </c>
+      <c r="S143">
+        <v>9</v>
+      </c>
+      <c r="T143">
+        <v>4.5</v>
+      </c>
+      <c r="U143">
+        <v>1.91</v>
+      </c>
+      <c r="V143">
+        <v>2.75</v>
+      </c>
+      <c r="W143">
+        <v>1.54</v>
+      </c>
+      <c r="X143">
+        <v>2.38</v>
+      </c>
+      <c r="Y143">
+        <v>3.54</v>
+      </c>
+      <c r="Z143">
+        <v>1.27</v>
+      </c>
+      <c r="AA143">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB143">
+        <v>1.03</v>
+      </c>
+      <c r="AC143">
+        <v>3.15</v>
+      </c>
+      <c r="AD143">
+        <v>2.78</v>
+      </c>
+      <c r="AE143">
+        <v>2.11</v>
+      </c>
+      <c r="AF143">
+        <v>1.09</v>
+      </c>
+      <c r="AG143">
+        <v>6</v>
+      </c>
+      <c r="AH143">
+        <v>1.48</v>
+      </c>
+      <c r="AI143">
+        <v>2.45</v>
+      </c>
+      <c r="AJ143">
+        <v>2.55</v>
+      </c>
+      <c r="AK143">
+        <v>1.47</v>
+      </c>
+      <c r="AL143">
+        <v>2.1</v>
+      </c>
+      <c r="AM143">
+        <v>1.7</v>
+      </c>
+      <c r="AN143">
+        <v>1.74</v>
+      </c>
+      <c r="AO143">
+        <v>1.32</v>
+      </c>
+      <c r="AP143">
+        <v>1.24</v>
+      </c>
+      <c r="AQ143">
+        <v>1.38</v>
+      </c>
+      <c r="AR143">
+        <v>2</v>
+      </c>
+      <c r="AS143">
+        <v>1.22</v>
+      </c>
+      <c r="AT143">
+        <v>2.1</v>
+      </c>
+      <c r="AU143">
+        <v>1.24</v>
+      </c>
+      <c r="AV143">
+        <v>1.18</v>
+      </c>
+      <c r="AW143">
+        <v>2.42</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>2</v>
+      </c>
+      <c r="BG143">
+        <v>3</v>
+      </c>
+      <c r="BH143">
+        <v>4</v>
+      </c>
+      <c r="BI143">
+        <v>1</v>
+      </c>
+      <c r="BJ143">
+        <v>6</v>
+      </c>
+      <c r="BK143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5280822</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45135.80208333334</v>
+      </c>
+      <c r="F144">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" t="s">
+        <v>66</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>3</v>
+      </c>
+      <c r="O144" t="s">
+        <v>181</v>
+      </c>
+      <c r="P144" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q144">
+        <v>6</v>
+      </c>
+      <c r="R144">
+        <v>4</v>
+      </c>
+      <c r="S144">
+        <v>10</v>
+      </c>
+      <c r="T144">
+        <v>2.6</v>
+      </c>
+      <c r="U144">
+        <v>2.05</v>
+      </c>
+      <c r="V144">
+        <v>4.33</v>
+      </c>
+      <c r="W144">
+        <v>1.46</v>
+      </c>
+      <c r="X144">
+        <v>2.6</v>
+      </c>
+      <c r="Y144">
+        <v>2.99</v>
+      </c>
+      <c r="Z144">
+        <v>1.36</v>
+      </c>
+      <c r="AA144">
+        <v>7.7</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>1.85</v>
+      </c>
+      <c r="AD144">
+        <v>3.2</v>
+      </c>
+      <c r="AE144">
+        <v>3.4</v>
+      </c>
+      <c r="AF144">
+        <v>1.05</v>
+      </c>
+      <c r="AG144">
+        <v>8</v>
+      </c>
+      <c r="AH144">
+        <v>1.33</v>
+      </c>
+      <c r="AI144">
+        <v>3</v>
+      </c>
+      <c r="AJ144">
+        <v>1.92</v>
+      </c>
+      <c r="AK144">
+        <v>1.8</v>
+      </c>
+      <c r="AL144">
+        <v>1.82</v>
+      </c>
+      <c r="AM144">
+        <v>1.94</v>
+      </c>
+      <c r="AN144">
+        <v>1.24</v>
+      </c>
+      <c r="AO144">
+        <v>1.31</v>
+      </c>
+      <c r="AP144">
+        <v>1.75</v>
+      </c>
+      <c r="AQ144">
+        <v>1.44</v>
+      </c>
+      <c r="AR144">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS144">
+        <v>1.6</v>
+      </c>
+      <c r="AT144">
+        <v>0.5</v>
+      </c>
+      <c r="AU144">
+        <v>1.53</v>
+      </c>
+      <c r="AV144">
+        <v>1.42</v>
+      </c>
+      <c r="AW144">
+        <v>2.95</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>1.93</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>3</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>3</v>
+      </c>
+      <c r="BI144">
+        <v>3</v>
+      </c>
+      <c r="BJ144">
+        <v>6</v>
+      </c>
+      <c r="BK144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5280819</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45135.89583333334</v>
+      </c>
+      <c r="F145">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>80</v>
+      </c>
+      <c r="P145" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>4.33</v>
+      </c>
+      <c r="U145">
+        <v>2.1</v>
+      </c>
+      <c r="V145">
+        <v>2.5</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+      <c r="AB145">
+        <v>0</v>
+      </c>
+      <c r="AC145">
+        <v>3.05</v>
+      </c>
+      <c r="AD145">
+        <v>3</v>
+      </c>
+      <c r="AE145">
+        <v>2.03</v>
+      </c>
+      <c r="AF145">
+        <v>0</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>2.09</v>
+      </c>
+      <c r="AK145">
+        <v>1.67</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AP145">
+        <v>0</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>1.78</v>
+      </c>
+      <c r="AS145">
+        <v>0.9</v>
+      </c>
+      <c r="AT145">
+        <v>1.9</v>
+      </c>
+      <c r="AU145">
+        <v>1.63</v>
+      </c>
+      <c r="AV145">
+        <v>1.44</v>
+      </c>
+      <c r="AW145">
+        <v>3.07</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>6</v>
+      </c>
+      <c r="BG145">
+        <v>6</v>
+      </c>
+      <c r="BH145">
+        <v>7</v>
+      </c>
+      <c r="BI145">
+        <v>12</v>
+      </c>
+      <c r="BJ145">
+        <v>13</v>
+      </c>
+      <c r="BK145">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5280825</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45136.70833333334</v>
+      </c>
+      <c r="F146">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>79</v>
+      </c>
+      <c r="H146" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>80</v>
+      </c>
+      <c r="P146" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q146">
+        <v>6</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>7</v>
+      </c>
+      <c r="T146">
+        <v>4</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>2.88</v>
+      </c>
+      <c r="W146">
+        <v>1.48</v>
+      </c>
+      <c r="X146">
+        <v>2.5</v>
+      </c>
+      <c r="Y146">
+        <v>3.1</v>
+      </c>
+      <c r="Z146">
+        <v>1.32</v>
+      </c>
+      <c r="AA146">
+        <v>7.25</v>
+      </c>
+      <c r="AB146">
+        <v>1.06</v>
+      </c>
+      <c r="AC146">
+        <v>3</v>
+      </c>
+      <c r="AD146">
+        <v>3.1</v>
+      </c>
+      <c r="AE146">
+        <v>2.02</v>
+      </c>
+      <c r="AF146">
+        <v>1.07</v>
+      </c>
+      <c r="AG146">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH146">
+        <v>1.37</v>
+      </c>
+      <c r="AI146">
+        <v>2.87</v>
+      </c>
+      <c r="AJ146">
+        <v>2.05</v>
+      </c>
+      <c r="AK146">
+        <v>1.65</v>
+      </c>
+      <c r="AL146">
+        <v>1.9</v>
+      </c>
+      <c r="AM146">
+        <v>1.82</v>
+      </c>
+      <c r="AN146">
+        <v>1.62</v>
+      </c>
+      <c r="AO146">
+        <v>1.3</v>
+      </c>
+      <c r="AP146">
+        <v>1.3</v>
+      </c>
+      <c r="AQ146">
+        <v>1.14</v>
+      </c>
+      <c r="AR146">
+        <v>1.22</v>
+      </c>
+      <c r="AS146">
+        <v>1.13</v>
+      </c>
+      <c r="AT146">
+        <v>1.2</v>
+      </c>
+      <c r="AU146">
+        <v>1.82</v>
+      </c>
+      <c r="AV146">
+        <v>1.52</v>
+      </c>
+      <c r="AW146">
+        <v>3.34</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>3</v>
+      </c>
+      <c r="BG146">
+        <v>8</v>
+      </c>
+      <c r="BH146">
+        <v>10</v>
+      </c>
+      <c r="BI146">
+        <v>9</v>
+      </c>
+      <c r="BJ146">
+        <v>13</v>
+      </c>
+      <c r="BK146">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5280824</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45136.80208333334</v>
+      </c>
+      <c r="F147">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s">
+        <v>65</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>175</v>
+      </c>
+      <c r="P147" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q147">
+        <v>5</v>
+      </c>
+      <c r="R147">
+        <v>8</v>
+      </c>
+      <c r="S147">
+        <v>13</v>
+      </c>
+      <c r="T147">
+        <v>4.5</v>
+      </c>
+      <c r="U147">
+        <v>2.1</v>
+      </c>
+      <c r="V147">
+        <v>2.4</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>2.75</v>
+      </c>
+      <c r="Y147">
+        <v>2.8</v>
+      </c>
+      <c r="Z147">
+        <v>1.38</v>
+      </c>
+      <c r="AA147">
+        <v>6.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>4.3</v>
+      </c>
+      <c r="AD147">
+        <v>3.3</v>
+      </c>
+      <c r="AE147">
+        <v>1.8</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>11</v>
+      </c>
+      <c r="AH147">
+        <v>1.28</v>
+      </c>
+      <c r="AI147">
+        <v>3.32</v>
+      </c>
+      <c r="AJ147">
+        <v>1.87</v>
+      </c>
+      <c r="AK147">
+        <v>1.87</v>
+      </c>
+      <c r="AL147">
+        <v>1.8</v>
+      </c>
+      <c r="AM147">
+        <v>1.9</v>
+      </c>
+      <c r="AN147">
+        <v>1.9</v>
+      </c>
+      <c r="AO147">
+        <v>1.25</v>
+      </c>
+      <c r="AP147">
+        <v>1.2</v>
+      </c>
+      <c r="AQ147">
+        <v>0.78</v>
+      </c>
+      <c r="AR147">
+        <v>1.43</v>
+      </c>
+      <c r="AS147">
+        <v>0.7</v>
+      </c>
+      <c r="AT147">
+        <v>1.63</v>
+      </c>
+      <c r="AU147">
+        <v>1.41</v>
+      </c>
+      <c r="AV147">
+        <v>1.68</v>
+      </c>
+      <c r="AW147">
+        <v>3.09</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>4</v>
+      </c>
+      <c r="BG147">
+        <v>6</v>
+      </c>
+      <c r="BH147">
+        <v>4</v>
+      </c>
+      <c r="BI147">
+        <v>7</v>
+      </c>
+      <c r="BJ147">
+        <v>8</v>
+      </c>
+      <c r="BK147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5280823</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45136.89583333334</v>
+      </c>
+      <c r="F148">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>69</v>
+      </c>
+      <c r="H148" t="s">
+        <v>76</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>1</v>
+      </c>
+      <c r="O148" t="s">
+        <v>80</v>
+      </c>
+      <c r="P148" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>6</v>
+      </c>
+      <c r="T148">
+        <v>2.5</v>
+      </c>
+      <c r="U148">
+        <v>2.1</v>
+      </c>
+      <c r="V148">
+        <v>4.33</v>
+      </c>
+      <c r="W148">
+        <v>1.45</v>
+      </c>
+      <c r="X148">
+        <v>2.55</v>
+      </c>
+      <c r="Y148">
+        <v>3.05</v>
+      </c>
+      <c r="Z148">
+        <v>1.32</v>
+      </c>
+      <c r="AA148">
+        <v>7.25</v>
+      </c>
+      <c r="AB148">
+        <v>1.06</v>
+      </c>
+      <c r="AC148">
+        <v>1.9</v>
+      </c>
+      <c r="AD148">
+        <v>3.4</v>
+      </c>
+      <c r="AE148">
+        <v>3.7</v>
+      </c>
+      <c r="AF148">
+        <v>1.06</v>
+      </c>
+      <c r="AG148">
+        <v>9.85</v>
+      </c>
+      <c r="AH148">
+        <v>1.35</v>
+      </c>
+      <c r="AI148">
+        <v>2.94</v>
+      </c>
+      <c r="AJ148">
+        <v>1.95</v>
+      </c>
+      <c r="AK148">
+        <v>1.7</v>
+      </c>
+      <c r="AL148">
+        <v>1.95</v>
+      </c>
+      <c r="AM148">
+        <v>1.78</v>
+      </c>
+      <c r="AN148">
+        <v>1.25</v>
+      </c>
+      <c r="AO148">
+        <v>1.25</v>
+      </c>
+      <c r="AP148">
+        <v>1.82</v>
+      </c>
+      <c r="AQ148">
+        <v>1.9</v>
+      </c>
+      <c r="AR148">
+        <v>1.2</v>
+      </c>
+      <c r="AS148">
+        <v>1.73</v>
+      </c>
+      <c r="AT148">
+        <v>1.36</v>
+      </c>
+      <c r="AU148">
+        <v>1.47</v>
+      </c>
+      <c r="AV148">
+        <v>1.29</v>
+      </c>
+      <c r="AW148">
+        <v>2.76</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>1.95</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>2</v>
+      </c>
+      <c r="BG148">
+        <v>4</v>
+      </c>
+      <c r="BH148">
+        <v>7</v>
+      </c>
+      <c r="BI148">
+        <v>4</v>
+      </c>
+      <c r="BJ148">
+        <v>9</v>
+      </c>
+      <c r="BK148">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
